--- a/Code/Results/Cases/Case_2_221/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_221/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.98301861388457</v>
+        <v>11.01197132713819</v>
       </c>
       <c r="C2">
-        <v>12.78088054898961</v>
+        <v>7.67171550768592</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.61341694746732</v>
+        <v>21.78552987994918</v>
       </c>
       <c r="F2">
-        <v>30.0387035497079</v>
+        <v>37.87772308245467</v>
       </c>
       <c r="G2">
-        <v>2.06265352818912</v>
+        <v>3.609602093350006</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.98824452872171</v>
+        <v>18.19053903258717</v>
       </c>
       <c r="J2">
-        <v>4.436138761526565</v>
+        <v>7.57147938089041</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.0376817321708</v>
+        <v>18.87438220162424</v>
       </c>
       <c r="N2">
-        <v>11.49566553958775</v>
+        <v>16.87013181718938</v>
       </c>
       <c r="O2">
-        <v>13.28052082886595</v>
+        <v>19.29644185346895</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.8346045738686</v>
+        <v>10.48645652526517</v>
       </c>
       <c r="C3">
-        <v>12.01201994458495</v>
+        <v>7.262507498494661</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.10916023782311</v>
+        <v>21.75493604695122</v>
       </c>
       <c r="F3">
-        <v>28.93260820236343</v>
+        <v>37.80078641722215</v>
       </c>
       <c r="G3">
-        <v>2.067638815386311</v>
+        <v>3.61149475421795</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.13466890449469</v>
+        <v>18.28675726608654</v>
       </c>
       <c r="J3">
-        <v>4.483603446214834</v>
+        <v>7.587567856043336</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.12287408543267</v>
+        <v>18.68933900617738</v>
       </c>
       <c r="N3">
-        <v>11.62556416601574</v>
+        <v>16.91646567094952</v>
       </c>
       <c r="O3">
-        <v>13.08644494488111</v>
+        <v>19.3445445993421</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.08863506624503</v>
+        <v>10.15071500087388</v>
       </c>
       <c r="C4">
-        <v>11.51437014674526</v>
+        <v>6.997673533625544</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.80084462820817</v>
+        <v>21.74024970239971</v>
       </c>
       <c r="F4">
-        <v>28.2590753258043</v>
+        <v>37.76380188521851</v>
       </c>
       <c r="G4">
-        <v>2.070793157433774</v>
+        <v>3.612718507496169</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.23668698805213</v>
+        <v>18.35008256406965</v>
       </c>
       <c r="J4">
-        <v>4.513498367268667</v>
+        <v>7.597941711227123</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.54028652006336</v>
+        <v>18.57792433885727</v>
       </c>
       <c r="N4">
-        <v>11.70877560054002</v>
+        <v>16.94666956045301</v>
       </c>
       <c r="O4">
-        <v>12.98123853112198</v>
+        <v>19.37941940028432</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.7743659695338</v>
+        <v>10.01078040189119</v>
       </c>
       <c r="C5">
-        <v>11.30517739632551</v>
+        <v>6.886392702329099</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.67568953580098</v>
+        <v>21.73529955997374</v>
       </c>
       <c r="F5">
-        <v>27.98639268104909</v>
+        <v>37.75131865847059</v>
       </c>
       <c r="G5">
-        <v>2.072102638034951</v>
+        <v>3.613232748822579</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.28113778491102</v>
+        <v>18.37695419673884</v>
       </c>
       <c r="J5">
-        <v>4.525875198427088</v>
+        <v>7.602294102152234</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.29786650458079</v>
+        <v>18.5331196019674</v>
       </c>
       <c r="N5">
-        <v>11.74354399623096</v>
+        <v>16.95941994663899</v>
       </c>
       <c r="O5">
-        <v>12.94180277680493</v>
+        <v>19.39496897225789</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.72156081089855</v>
+        <v>9.98736159972618</v>
       </c>
       <c r="C6">
-        <v>11.27005604234516</v>
+        <v>6.867713602942603</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.65494181603106</v>
+        <v>21.73454018883448</v>
       </c>
       <c r="F6">
-        <v>27.9412333319346</v>
+        <v>37.74940238081747</v>
       </c>
       <c r="G6">
-        <v>2.07232154611909</v>
+        <v>3.613319078944476</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.28868789150954</v>
+        <v>18.38148054485042</v>
       </c>
       <c r="J6">
-        <v>4.527942258203348</v>
+        <v>7.603024371598285</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.25731826664811</v>
+        <v>18.52571716357702</v>
       </c>
       <c r="N6">
-        <v>11.74936890144202</v>
+        <v>16.96156386200017</v>
       </c>
       <c r="O6">
-        <v>12.93545968430806</v>
+        <v>19.39763161758345</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.08443835525421</v>
+        <v>10.14884017082557</v>
       </c>
       <c r="C7">
-        <v>11.51157474438022</v>
+        <v>6.996186278973644</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.79915455767908</v>
+        <v>21.74017874889876</v>
       </c>
       <c r="F7">
-        <v>28.25539008075949</v>
+        <v>37.76362304162537</v>
       </c>
       <c r="G7">
-        <v>2.07081071937025</v>
+        <v>3.61272537969958</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.23727503025577</v>
+        <v>18.3504406503106</v>
       </c>
       <c r="J7">
-        <v>4.513664491357517</v>
+        <v>7.597999902640151</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.5370370909175</v>
+        <v>18.57731760965934</v>
       </c>
       <c r="N7">
-        <v>11.70924103222223</v>
+        <v>16.94683972566279</v>
       </c>
       <c r="O7">
-        <v>12.98069287745134</v>
+        <v>19.37962369724967</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.59551119684314</v>
+        <v>10.83358125027122</v>
       </c>
       <c r="C8">
-        <v>12.52109825366197</v>
+        <v>7.533468613026765</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.43937163100279</v>
+        <v>21.77413316772583</v>
       </c>
       <c r="F8">
-        <v>29.65637393184731</v>
+        <v>37.84907347673193</v>
       </c>
       <c r="G8">
-        <v>2.064353440723728</v>
+        <v>3.610241916563903</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.0361130224353</v>
+        <v>18.22283250365508</v>
       </c>
       <c r="J8">
-        <v>4.452352005845732</v>
+        <v>7.576924077598571</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.72672289392761</v>
+        <v>18.81014873960444</v>
       </c>
       <c r="N8">
-        <v>11.53973190328034</v>
+        <v>16.88574402826277</v>
       </c>
       <c r="O8">
-        <v>13.21066686045875</v>
+        <v>19.31191665520469</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.23576342706816</v>
+        <v>12.06641085832628</v>
       </c>
       <c r="C9">
-        <v>14.29726631493285</v>
+        <v>8.477446891040588</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.69876968827991</v>
+        <v>21.87302791002638</v>
       </c>
       <c r="F9">
-        <v>32.43328665670283</v>
+        <v>38.09746784698005</v>
       </c>
       <c r="G9">
-        <v>2.052403444927515</v>
+        <v>3.605858792161246</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.74584678538632</v>
+        <v>18.00637493806664</v>
       </c>
       <c r="J9">
-        <v>4.337817736104125</v>
+        <v>7.539508627177593</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.8856137936131</v>
+        <v>19.28223851052151</v>
       </c>
       <c r="N9">
-        <v>11.23520983954205</v>
+        <v>16.7798218138368</v>
       </c>
       <c r="O9">
-        <v>13.77499664588711</v>
+        <v>19.22171089677124</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.98082459926399</v>
+        <v>12.89834844998137</v>
       </c>
       <c r="C10">
-        <v>15.47820576567073</v>
+        <v>9.102253936349737</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.61895357426238</v>
+        <v>21.96506122409031</v>
       </c>
       <c r="F10">
-        <v>34.47418934743517</v>
+        <v>38.32833864081745</v>
       </c>
       <c r="G10">
-        <v>2.044016773130556</v>
+        <v>3.60293222356727</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.60805699670473</v>
+        <v>17.86805482928834</v>
       </c>
       <c r="J10">
-        <v>4.256752660096005</v>
+        <v>7.514381476507534</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.5294051718334</v>
+        <v>19.63585696960525</v>
       </c>
       <c r="N10">
-        <v>11.02926719970534</v>
+        <v>16.71041597980399</v>
       </c>
       <c r="O10">
-        <v>14.26145686928615</v>
+        <v>19.18163672589195</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.73302356532291</v>
+        <v>13.25972238978505</v>
       </c>
       <c r="C11">
-        <v>15.98873843628441</v>
+        <v>9.371311849801241</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.03520764447813</v>
+        <v>22.01105320303305</v>
       </c>
       <c r="F11">
-        <v>35.39998253537684</v>
+        <v>38.44362527499258</v>
       </c>
       <c r="G11">
-        <v>2.040276962328152</v>
+        <v>3.601663961009424</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.56456056353508</v>
+        <v>17.80965308857159</v>
       </c>
       <c r="J11">
-        <v>4.220450431850725</v>
+        <v>7.503458201869291</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.27014273997084</v>
+        <v>19.79762216296736</v>
       </c>
       <c r="N11">
-        <v>10.93965655002873</v>
+        <v>16.68065842654093</v>
       </c>
       <c r="O11">
-        <v>14.49874429218481</v>
+        <v>19.16913916008912</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.01193040490487</v>
+        <v>13.39404025393302</v>
       </c>
       <c r="C12">
-        <v>16.17825464161265</v>
+        <v>9.471000807609055</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.19241395263461</v>
+        <v>22.02905412376154</v>
       </c>
       <c r="F12">
-        <v>35.75000280064589</v>
+        <v>38.48873211151496</v>
       </c>
       <c r="G12">
-        <v>2.038870757174685</v>
+        <v>3.601192718652287</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.55109342318186</v>
+        <v>17.78819034344317</v>
       </c>
       <c r="J12">
-        <v>4.206778122267415</v>
+        <v>7.499394389138343</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.54503770362329</v>
+        <v>19.85895998516512</v>
       </c>
       <c r="N12">
-        <v>10.90633084265405</v>
+        <v>16.66965034288686</v>
       </c>
       <c r="O12">
-        <v>14.59091917663277</v>
+        <v>19.1652337616231</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.95212586834433</v>
+        <v>13.36522586390503</v>
       </c>
       <c r="C13">
-        <v>16.13760796794973</v>
+        <v>9.449628947453828</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.15857657297545</v>
+        <v>22.02515143889718</v>
       </c>
       <c r="F13">
-        <v>35.67464684625307</v>
+        <v>38.47895347603666</v>
       </c>
       <c r="G13">
-        <v>2.039173178969476</v>
+        <v>3.601293808621977</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.55385620962851</v>
+        <v>17.7927836566317</v>
       </c>
       <c r="J13">
-        <v>4.209719517904224</v>
+        <v>7.500266380645157</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.48608209784277</v>
+        <v>19.84574696531326</v>
       </c>
       <c r="N13">
-        <v>10.91348070863408</v>
+        <v>16.67200955632614</v>
       </c>
       <c r="O13">
-        <v>14.570964251294</v>
+        <v>19.16603803116208</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.75608801433447</v>
+        <v>13.27082379888946</v>
       </c>
       <c r="C14">
-        <v>16.00440626374914</v>
+        <v>9.379557436519907</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.04814993212727</v>
+        <v>22.01252248136883</v>
       </c>
       <c r="F14">
-        <v>35.42879095448678</v>
+        <v>38.44730732995611</v>
       </c>
       <c r="G14">
-        <v>2.040161078066224</v>
+        <v>3.60162501107665</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.56339097251239</v>
+        <v>17.80787423862213</v>
       </c>
       <c r="J14">
-        <v>4.219324156896833</v>
+        <v>7.503122416586636</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.29287037076296</v>
+        <v>19.80266712054292</v>
       </c>
       <c r="N14">
-        <v>10.93690250325236</v>
+        <v>16.67974756837721</v>
       </c>
       <c r="O14">
-        <v>14.50628099776648</v>
+        <v>19.16880126865879</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.63523797374405</v>
+        <v>13.21266888543048</v>
       </c>
       <c r="C15">
-        <v>15.92232089228827</v>
+        <v>9.336350041264744</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.98045356420666</v>
+        <v>22.00486276870725</v>
       </c>
       <c r="F15">
-        <v>35.27811995692873</v>
+        <v>38.42811122577463</v>
       </c>
       <c r="G15">
-        <v>2.040767468163853</v>
+        <v>3.601829055630648</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.56962993327217</v>
+        <v>17.81720273968651</v>
       </c>
       <c r="J15">
-        <v>4.225216735121993</v>
+        <v>7.504881264962537</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.17379509853795</v>
+        <v>19.77628855765789</v>
       </c>
       <c r="N15">
-        <v>10.95132890363525</v>
+        <v>16.68452122544777</v>
       </c>
       <c r="O15">
-        <v>14.46696317653358</v>
+        <v>19.17060162750984</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.93083316182445</v>
+        <v>12.8743818101308</v>
       </c>
       <c r="C16">
-        <v>15.44430634443243</v>
+        <v>9.084363639774946</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.59169572253602</v>
+        <v>21.96213784694235</v>
       </c>
       <c r="F16">
-        <v>34.41361732875791</v>
+        <v>38.32100877622017</v>
       </c>
       <c r="G16">
-        <v>2.044262622877705</v>
+        <v>3.603016372334778</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.61130639469868</v>
+        <v>17.87196271452571</v>
       </c>
       <c r="J16">
-        <v>4.259135982530567</v>
+        <v>7.515105515133532</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.48020699169309</v>
+        <v>19.62529920159169</v>
       </c>
       <c r="N16">
-        <v>11.0352072610534</v>
+        <v>16.7123971857574</v>
       </c>
       <c r="O16">
-        <v>14.24627318310188</v>
+        <v>19.18256907676437</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.48807501678664</v>
+        <v>12.66242495683602</v>
       </c>
       <c r="C17">
-        <v>15.1442416375597</v>
+        <v>8.92587991651634</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.35254042066484</v>
+        <v>21.93697832782359</v>
       </c>
       <c r="F17">
-        <v>33.88245812724626</v>
+        <v>38.25791602942537</v>
       </c>
       <c r="G17">
-        <v>2.046425492783791</v>
+        <v>3.603760868622515</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.64195878108573</v>
+        <v>17.90671592517457</v>
       </c>
       <c r="J17">
-        <v>4.280085963109243</v>
+        <v>7.521507423296958</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.04463546759322</v>
+        <v>19.53286832055679</v>
       </c>
       <c r="N17">
-        <v>11.08772208080894</v>
+        <v>16.72996273750997</v>
       </c>
       <c r="O17">
-        <v>14.11499886556006</v>
+        <v>19.19138111059254</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.22948954087011</v>
+        <v>12.53890880106909</v>
       </c>
       <c r="C18">
-        <v>14.96913884682944</v>
+        <v>8.833297046289761</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.21476799302116</v>
+        <v>21.92289610909799</v>
       </c>
       <c r="F18">
-        <v>33.576710339877</v>
+        <v>38.22259437395717</v>
       </c>
       <c r="G18">
-        <v>2.047676663028093</v>
+        <v>3.60419502026158</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.66137968011258</v>
+        <v>17.92713040679523</v>
       </c>
       <c r="J18">
-        <v>4.292190446897802</v>
+        <v>7.525237390994826</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.79037563392902</v>
+        <v>19.47979236645537</v>
       </c>
       <c r="N18">
-        <v>11.11830915411877</v>
+        <v>16.7402368977397</v>
       </c>
       <c r="O18">
-        <v>14.04099804336601</v>
+        <v>19.19698897965667</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.14126169138619</v>
+        <v>12.49681519945706</v>
       </c>
       <c r="C19">
-        <v>14.90941969692056</v>
+        <v>8.801705511944164</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.16808624904233</v>
+        <v>21.91819514807989</v>
       </c>
       <c r="F19">
-        <v>33.47315458012401</v>
+        <v>38.21080199260954</v>
       </c>
       <c r="G19">
-        <v>2.048101539878443</v>
+        <v>3.604343037624481</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.66825545491495</v>
+        <v>17.93411537493933</v>
       </c>
       <c r="J19">
-        <v>4.296298433117099</v>
+        <v>7.526508507083397</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.70364435992264</v>
+        <v>19.4618383445831</v>
       </c>
       <c r="N19">
-        <v>11.12873038470762</v>
+        <v>16.74374492645681</v>
       </c>
       <c r="O19">
-        <v>14.01620040004015</v>
+        <v>19.19898025840395</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53561299568398</v>
+        <v>12.68515470473596</v>
       </c>
       <c r="C20">
-        <v>15.17644401477037</v>
+        <v>8.942898621766622</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.37802199227784</v>
+        <v>21.93961641415405</v>
       </c>
       <c r="F20">
-        <v>33.9390271256234</v>
+        <v>38.2645323908708</v>
       </c>
       <c r="G20">
-        <v>2.046194518125546</v>
+        <v>3.603681001585448</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.63850872921204</v>
+        <v>17.90297234504556</v>
       </c>
       <c r="J20">
-        <v>4.277850206773651</v>
+        <v>7.520820988784095</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.09138830078816</v>
+        <v>19.54269900975035</v>
       </c>
       <c r="N20">
-        <v>11.08209210888412</v>
+        <v>16.7280751695096</v>
       </c>
       <c r="O20">
-        <v>14.1288173560886</v>
+        <v>19.19038720425147</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.81382969824363</v>
+        <v>13.29862104669274</v>
       </c>
       <c r="C21">
-        <v>16.04363403544909</v>
+        <v>9.400198881679644</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.08059688585679</v>
+        <v>22.01621611336993</v>
       </c>
       <c r="F21">
-        <v>35.50102112719478</v>
+        <v>38.45656342449744</v>
       </c>
       <c r="G21">
-        <v>2.039870644391272</v>
+        <v>3.601527484413658</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.56050685486836</v>
+        <v>17.80342403268001</v>
       </c>
       <c r="J21">
-        <v>4.216501085522306</v>
+        <v>7.502281562101842</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.34977279347962</v>
+        <v>19.81531890829952</v>
       </c>
       <c r="N21">
-        <v>10.93000626477417</v>
+        <v>16.67746766273539</v>
       </c>
       <c r="O21">
-        <v>14.52521695944299</v>
+        <v>19.16796716986498</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.614655258396</v>
+        <v>13.6848054227985</v>
       </c>
       <c r="C22">
-        <v>16.58819369900471</v>
+        <v>9.686258191173232</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.53729624594527</v>
+        <v>22.06968242365237</v>
       </c>
       <c r="F22">
-        <v>36.51857415237224</v>
+        <v>38.59050670705757</v>
       </c>
       <c r="G22">
-        <v>2.035795358503134</v>
+        <v>3.60017259793329</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.52715747247106</v>
+        <v>17.74216931837407</v>
       </c>
       <c r="J22">
-        <v>4.176836273394916</v>
+        <v>7.490587954599446</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.13956457297801</v>
+        <v>19.99394074572108</v>
       </c>
       <c r="N22">
-        <v>10.8341651973797</v>
+        <v>16.64591059950563</v>
       </c>
       <c r="O22">
-        <v>14.79781213323827</v>
+        <v>19.15813664277569</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.19038321548678</v>
+        <v>13.48006151722307</v>
       </c>
       <c r="C23">
-        <v>16.29957291316202</v>
+        <v>9.534759531293723</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.29379626685424</v>
+        <v>22.04083796937599</v>
       </c>
       <c r="F23">
-        <v>35.97583645836586</v>
+        <v>38.51825543246959</v>
       </c>
       <c r="G23">
-        <v>2.037965430514983</v>
+        <v>3.600890931778052</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.54326034779705</v>
+        <v>17.7745129851265</v>
       </c>
       <c r="J23">
-        <v>4.197969577498317</v>
+        <v>7.496790461783003</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.7209947921044</v>
+        <v>19.89858185350632</v>
       </c>
       <c r="N23">
-        <v>10.88498390376821</v>
+        <v>16.66261450962515</v>
       </c>
       <c r="O23">
-        <v>14.6510799932369</v>
+        <v>19.16294133749094</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.51413365658883</v>
+        <v>12.67488374867625</v>
       </c>
       <c r="C24">
-        <v>15.16189339411537</v>
+        <v>8.935209037866272</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.36650263579165</v>
+        <v>21.93842254376051</v>
       </c>
       <c r="F24">
-        <v>33.91345344238352</v>
+        <v>38.26153816897973</v>
       </c>
       <c r="G24">
-        <v>2.046298917697503</v>
+        <v>3.603717090372347</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.64006291442422</v>
+        <v>17.90466346466977</v>
       </c>
       <c r="J24">
-        <v>4.278860804532812</v>
+        <v>7.521131171841108</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.07026332436961</v>
+        <v>19.5382543527066</v>
       </c>
       <c r="N24">
-        <v>11.08463618860752</v>
+        <v>16.72892799229871</v>
       </c>
       <c r="O24">
-        <v>14.12256543763515</v>
+        <v>19.19083486209832</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.55588670402192</v>
+        <v>11.74544579990607</v>
       </c>
       <c r="C25">
-        <v>13.83858808847709</v>
+        <v>8.234038343645697</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.35848031590901</v>
+        <v>21.84284551938443</v>
       </c>
       <c r="F25">
-        <v>31.68083038741962</v>
+        <v>38.0216996691376</v>
       </c>
       <c r="G25">
-        <v>2.055564068388632</v>
+        <v>3.606992738966994</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.81202755677985</v>
+        <v>18.06130403838104</v>
       </c>
       <c r="J25">
-        <v>4.368231034306029</v>
+        <v>7.549213969975484</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.32120614006532</v>
+        <v>19.15314051141221</v>
       </c>
       <c r="N25">
-        <v>11.31453191227772</v>
+        <v>16.80699523249699</v>
       </c>
       <c r="O25">
-        <v>13.60986961096975</v>
+        <v>19.24152923874994</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_221/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_221/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.01197132713819</v>
+        <v>17.98301861388468</v>
       </c>
       <c r="C2">
-        <v>7.67171550768592</v>
+        <v>12.78088054898953</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.78552987994918</v>
+        <v>15.61341694746743</v>
       </c>
       <c r="F2">
-        <v>37.87772308245467</v>
+        <v>30.03870354970792</v>
       </c>
       <c r="G2">
-        <v>3.609602093350006</v>
+        <v>2.062653528189522</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.19053903258717</v>
+        <v>10.98824452872155</v>
       </c>
       <c r="J2">
-        <v>7.57147938089041</v>
+        <v>4.436138761526498</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.87438220162424</v>
+        <v>17.03768173217081</v>
       </c>
       <c r="N2">
-        <v>16.87013181718938</v>
+        <v>11.49566553958772</v>
       </c>
       <c r="O2">
-        <v>19.29644185346895</v>
+        <v>13.28052082886582</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.48645652526517</v>
+        <v>16.83460457386844</v>
       </c>
       <c r="C3">
-        <v>7.262507498494661</v>
+        <v>12.0120199445851</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.75493604695122</v>
+        <v>15.10916023782309</v>
       </c>
       <c r="F3">
-        <v>37.80078641722215</v>
+        <v>28.93260820236351</v>
       </c>
       <c r="G3">
-        <v>3.61149475421795</v>
+        <v>2.067638815386042</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.28675726608654</v>
+        <v>11.13466890449483</v>
       </c>
       <c r="J3">
-        <v>7.587567856043336</v>
+        <v>4.483603446214834</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.68933900617738</v>
+        <v>16.12287408543268</v>
       </c>
       <c r="N3">
-        <v>16.91646567094952</v>
+        <v>11.6255641660158</v>
       </c>
       <c r="O3">
-        <v>19.3445445993421</v>
+        <v>13.08644494488123</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.15071500087388</v>
+        <v>16.08863506624501</v>
       </c>
       <c r="C4">
-        <v>6.997673533625544</v>
+        <v>11.51437014674521</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.74024970239971</v>
+        <v>14.80084462820814</v>
       </c>
       <c r="F4">
-        <v>37.76380188521851</v>
+        <v>28.25907532580437</v>
       </c>
       <c r="G4">
-        <v>3.612718507496169</v>
+        <v>2.070793157433638</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.35008256406965</v>
+        <v>11.23668698805226</v>
       </c>
       <c r="J4">
-        <v>7.597941711227123</v>
+        <v>4.513498367268667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.57792433885727</v>
+        <v>15.54028652006337</v>
       </c>
       <c r="N4">
-        <v>16.94666956045301</v>
+        <v>11.70877560054004</v>
       </c>
       <c r="O4">
-        <v>19.37941940028432</v>
+        <v>12.98123853112206</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.01078040189119</v>
+        <v>15.77436596953384</v>
       </c>
       <c r="C5">
-        <v>6.886392702329099</v>
+        <v>11.30517739632549</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.73529955997374</v>
+        <v>14.67568953580105</v>
       </c>
       <c r="F5">
-        <v>37.75131865847059</v>
+        <v>27.98639268104916</v>
       </c>
       <c r="G5">
-        <v>3.613232748822579</v>
+        <v>2.072102638035085</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.37695419673884</v>
+        <v>11.28113778491106</v>
       </c>
       <c r="J5">
-        <v>7.602294102152234</v>
+        <v>4.525875198427156</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.5331196019674</v>
+        <v>15.2978665045808</v>
       </c>
       <c r="N5">
-        <v>16.95941994663899</v>
+        <v>11.74354399623099</v>
       </c>
       <c r="O5">
-        <v>19.39496897225789</v>
+        <v>12.94180277680498</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.98736159972618</v>
+        <v>15.72156081089852</v>
       </c>
       <c r="C6">
-        <v>6.867713602942603</v>
+        <v>11.27005604234523</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.73454018883448</v>
+        <v>14.65494181603114</v>
       </c>
       <c r="F6">
-        <v>37.74940238081747</v>
+        <v>27.94123333193467</v>
       </c>
       <c r="G6">
-        <v>3.613319078944476</v>
+        <v>2.072321546118955</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.38148054485042</v>
+        <v>11.28868789150954</v>
       </c>
       <c r="J6">
-        <v>7.603024371598285</v>
+        <v>4.527942258203382</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.52571716357702</v>
+        <v>15.25731826664814</v>
       </c>
       <c r="N6">
-        <v>16.96156386200017</v>
+        <v>11.74936890144198</v>
       </c>
       <c r="O6">
-        <v>19.39763161758345</v>
+        <v>12.93545968430805</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.14884017082557</v>
+        <v>16.08443835525417</v>
       </c>
       <c r="C7">
-        <v>6.996186278973644</v>
+        <v>11.51157474438024</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.74017874889876</v>
+        <v>14.79915455767905</v>
       </c>
       <c r="F7">
-        <v>37.76362304162537</v>
+        <v>28.25539008075968</v>
       </c>
       <c r="G7">
-        <v>3.61272537969958</v>
+        <v>2.070810719370519</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.3504406503106</v>
+        <v>11.23727503025596</v>
       </c>
       <c r="J7">
-        <v>7.597999902640151</v>
+        <v>4.513664491357483</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.57731760965934</v>
+        <v>15.53703709091751</v>
       </c>
       <c r="N7">
-        <v>16.94683972566279</v>
+        <v>11.70924103222232</v>
       </c>
       <c r="O7">
-        <v>19.37962369724967</v>
+        <v>12.98069287745149</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.83358125027122</v>
+        <v>17.59551119684309</v>
       </c>
       <c r="C8">
-        <v>7.533468613026765</v>
+        <v>12.52109825366187</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>21.77413316772583</v>
+        <v>15.4393716310027</v>
       </c>
       <c r="F8">
-        <v>37.84907347673193</v>
+        <v>29.65637393184728</v>
       </c>
       <c r="G8">
-        <v>3.610241916563903</v>
+        <v>2.064353440723595</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.22283250365508</v>
+        <v>11.03611302243535</v>
       </c>
       <c r="J8">
-        <v>7.576924077598571</v>
+        <v>4.452352005845732</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.81014873960444</v>
+        <v>16.72672289392761</v>
       </c>
       <c r="N8">
-        <v>16.88574402826277</v>
+        <v>11.53973190328028</v>
       </c>
       <c r="O8">
-        <v>19.31191665520469</v>
+        <v>13.2106668604588</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.06641085832628</v>
+        <v>20.23576342706814</v>
       </c>
       <c r="C9">
-        <v>8.477446891040588</v>
+        <v>14.29726631493291</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.87302791002638</v>
+        <v>16.69876968828</v>
       </c>
       <c r="F9">
-        <v>38.09746784698005</v>
+        <v>32.43328665670286</v>
       </c>
       <c r="G9">
-        <v>3.605858792161246</v>
+        <v>2.05240344492765</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.00637493806664</v>
+        <v>10.74584678538633</v>
       </c>
       <c r="J9">
-        <v>7.539508627177593</v>
+        <v>4.337817736104193</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.28223851052151</v>
+        <v>18.88561379361314</v>
       </c>
       <c r="N9">
-        <v>16.7798218138368</v>
+        <v>11.23520983954201</v>
       </c>
       <c r="O9">
-        <v>19.22171089677124</v>
+        <v>13.7749966458871</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.89834844998137</v>
+        <v>21.98082459926401</v>
       </c>
       <c r="C10">
-        <v>9.102253936349737</v>
+        <v>15.47820576567057</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.96506122409031</v>
+        <v>17.61895357426236</v>
       </c>
       <c r="F10">
-        <v>38.32833864081745</v>
+        <v>34.47418934743519</v>
       </c>
       <c r="G10">
-        <v>3.60293222356727</v>
+        <v>2.044016773130419</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.86805482928834</v>
+        <v>10.60805699670468</v>
       </c>
       <c r="J10">
-        <v>7.514381476507534</v>
+        <v>4.256752660095973</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.63585696960525</v>
+        <v>20.52940517183338</v>
       </c>
       <c r="N10">
-        <v>16.71041597980399</v>
+        <v>11.02926719970534</v>
       </c>
       <c r="O10">
-        <v>19.18163672589195</v>
+        <v>14.26145686928617</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.25972238978505</v>
+        <v>22.73302356532297</v>
       </c>
       <c r="C11">
-        <v>9.371311849801241</v>
+        <v>15.98873843628433</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.01105320303305</v>
+        <v>18.03520764447808</v>
       </c>
       <c r="F11">
-        <v>38.44362527499258</v>
+        <v>35.39998253537683</v>
       </c>
       <c r="G11">
-        <v>3.601663961009424</v>
+        <v>2.040276962328286</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.80965308857159</v>
+        <v>10.56456056353503</v>
       </c>
       <c r="J11">
-        <v>7.503458201869291</v>
+        <v>4.220450431850657</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.79762216296736</v>
+        <v>21.27014273997086</v>
       </c>
       <c r="N11">
-        <v>16.68065842654093</v>
+        <v>10.93965655002867</v>
       </c>
       <c r="O11">
-        <v>19.16913916008912</v>
+        <v>14.49874429218482</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.39404025393302</v>
+        <v>23.01193040490484</v>
       </c>
       <c r="C12">
-        <v>9.471000807609055</v>
+        <v>16.17825464161264</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.02905412376154</v>
+        <v>18.1924139526346</v>
       </c>
       <c r="F12">
-        <v>38.48873211151496</v>
+        <v>35.75000280064596</v>
       </c>
       <c r="G12">
-        <v>3.601192718652287</v>
+        <v>2.03887075717455</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.78819034344317</v>
+        <v>10.55109342318196</v>
       </c>
       <c r="J12">
-        <v>7.499394389138343</v>
+        <v>4.206778122267415</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.85895998516512</v>
+        <v>21.54503770362327</v>
       </c>
       <c r="N12">
-        <v>16.66965034288686</v>
+        <v>10.9063308426541</v>
       </c>
       <c r="O12">
-        <v>19.1652337616231</v>
+        <v>14.59091917663283</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.36522586390503</v>
+        <v>22.95212586834435</v>
       </c>
       <c r="C13">
-        <v>9.449628947453828</v>
+        <v>16.1376079679498</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.02515143889718</v>
+        <v>18.15857657297549</v>
       </c>
       <c r="F13">
-        <v>38.47895347603666</v>
+        <v>35.6746468462531</v>
       </c>
       <c r="G13">
-        <v>3.601293808621977</v>
+        <v>2.039173178969341</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.7927836566317</v>
+        <v>10.5538562096285</v>
       </c>
       <c r="J13">
-        <v>7.500266380645157</v>
+        <v>4.20971951790419</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.84574696531326</v>
+        <v>21.48608209784277</v>
       </c>
       <c r="N13">
-        <v>16.67200955632614</v>
+        <v>10.91348070863405</v>
       </c>
       <c r="O13">
-        <v>19.16603803116208</v>
+        <v>14.57096425129396</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.27082379888946</v>
+        <v>22.75608801433449</v>
       </c>
       <c r="C14">
-        <v>9.379557436519907</v>
+        <v>16.0044062637491</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.01252248136883</v>
+        <v>18.04814993212725</v>
       </c>
       <c r="F14">
-        <v>38.44730732995611</v>
+        <v>35.42879095448676</v>
       </c>
       <c r="G14">
-        <v>3.60162501107665</v>
+        <v>2.040161078066225</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.80787423862213</v>
+        <v>10.56339097251236</v>
       </c>
       <c r="J14">
-        <v>7.503122416586636</v>
+        <v>4.219324156896833</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.80266712054292</v>
+        <v>21.29287037076295</v>
       </c>
       <c r="N14">
-        <v>16.67974756837721</v>
+        <v>10.93690250325236</v>
       </c>
       <c r="O14">
-        <v>19.16880126865879</v>
+        <v>14.50628099776648</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.21266888543048</v>
+        <v>22.63523797374406</v>
       </c>
       <c r="C15">
-        <v>9.336350041264744</v>
+        <v>15.92232089228843</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>22.00486276870725</v>
+        <v>17.98045356420671</v>
       </c>
       <c r="F15">
-        <v>38.42811122577463</v>
+        <v>35.27811995692874</v>
       </c>
       <c r="G15">
-        <v>3.601829055630648</v>
+        <v>2.040767468163986</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.81720273968651</v>
+        <v>10.56962993327218</v>
       </c>
       <c r="J15">
-        <v>7.504881264962537</v>
+        <v>4.225216735121927</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.77628855765789</v>
+        <v>21.17379509853793</v>
       </c>
       <c r="N15">
-        <v>16.68452122544777</v>
+        <v>10.95132890363525</v>
       </c>
       <c r="O15">
-        <v>19.17060162750984</v>
+        <v>14.46696317653355</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.8743818101308</v>
+        <v>21.93083316182446</v>
       </c>
       <c r="C16">
-        <v>9.084363639774946</v>
+        <v>15.44430634443245</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>21.96213784694235</v>
+        <v>17.59169572253599</v>
       </c>
       <c r="F16">
-        <v>38.32100877622017</v>
+        <v>34.41361732875794</v>
       </c>
       <c r="G16">
-        <v>3.603016372334778</v>
+        <v>2.044262622877971</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.87196271452571</v>
+        <v>10.61130639469869</v>
       </c>
       <c r="J16">
-        <v>7.515105515133532</v>
+        <v>4.2591359825305</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.62529920159169</v>
+        <v>20.4802069916931</v>
       </c>
       <c r="N16">
-        <v>16.7123971857574</v>
+        <v>11.03520726105339</v>
       </c>
       <c r="O16">
-        <v>19.18256907676437</v>
+        <v>14.2462731831019</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.66242495683602</v>
+        <v>21.48807501678668</v>
       </c>
       <c r="C17">
-        <v>8.92587991651634</v>
+        <v>15.14424163755957</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.93697832782359</v>
+        <v>17.35254042066484</v>
       </c>
       <c r="F17">
-        <v>38.25791602942537</v>
+        <v>33.88245812724627</v>
       </c>
       <c r="G17">
-        <v>3.603760868622515</v>
+        <v>2.046425492783791</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.90671592517457</v>
+        <v>10.64195878108572</v>
       </c>
       <c r="J17">
-        <v>7.521507423296958</v>
+        <v>4.280085963109243</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.53286832055679</v>
+        <v>20.04463546759323</v>
       </c>
       <c r="N17">
-        <v>16.72996273750997</v>
+        <v>11.08772208080894</v>
       </c>
       <c r="O17">
-        <v>19.19138111059254</v>
+        <v>14.11499886556007</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.53890880106909</v>
+        <v>21.22948954087009</v>
       </c>
       <c r="C18">
-        <v>8.833297046289761</v>
+        <v>14.96913884682947</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.92289610909799</v>
+        <v>17.21476799302119</v>
       </c>
       <c r="F18">
-        <v>38.22259437395717</v>
+        <v>33.57671033987708</v>
       </c>
       <c r="G18">
-        <v>3.60419502026158</v>
+        <v>2.047676663028093</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.92713040679523</v>
+        <v>10.66137968011267</v>
       </c>
       <c r="J18">
-        <v>7.525237390994826</v>
+        <v>4.292190446897803</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.47979236645537</v>
+        <v>19.79037563392897</v>
       </c>
       <c r="N18">
-        <v>16.7402368977397</v>
+        <v>11.1183091541188</v>
       </c>
       <c r="O18">
-        <v>19.19698897965667</v>
+        <v>14.04099804336607</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.49681519945706</v>
+        <v>21.1412616913861</v>
       </c>
       <c r="C19">
-        <v>8.801705511944164</v>
+        <v>14.90941969692062</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>21.91819514807989</v>
+        <v>17.1680862490423</v>
       </c>
       <c r="F19">
-        <v>38.21080199260954</v>
+        <v>33.47315458012405</v>
       </c>
       <c r="G19">
-        <v>3.604343037624481</v>
+        <v>2.048101539878709</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.93411537493933</v>
+        <v>10.66825545491503</v>
       </c>
       <c r="J19">
-        <v>7.526508507083397</v>
+        <v>4.296298433117031</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.4618383445831</v>
+        <v>19.70364435992262</v>
       </c>
       <c r="N19">
-        <v>16.74374492645681</v>
+        <v>11.12873038470762</v>
       </c>
       <c r="O19">
-        <v>19.19898025840395</v>
+        <v>14.01620040004018</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.68515470473596</v>
+        <v>21.53561299568402</v>
       </c>
       <c r="C20">
-        <v>8.942898621766622</v>
+        <v>15.17644401477022</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>21.93961641415405</v>
+        <v>17.37802199227779</v>
       </c>
       <c r="F20">
-        <v>38.2645323908708</v>
+        <v>33.9390271256234</v>
       </c>
       <c r="G20">
-        <v>3.603681001585448</v>
+        <v>2.046194518125546</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.90297234504556</v>
+        <v>10.63850872921204</v>
       </c>
       <c r="J20">
-        <v>7.520820988784095</v>
+        <v>4.277850206773586</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.54269900975035</v>
+        <v>20.09138830078816</v>
       </c>
       <c r="N20">
-        <v>16.7280751695096</v>
+        <v>11.08209210888411</v>
       </c>
       <c r="O20">
-        <v>19.19038720425147</v>
+        <v>14.12881735608865</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.29862104669274</v>
+        <v>22.81382969824361</v>
       </c>
       <c r="C21">
-        <v>9.400198881679644</v>
+        <v>16.04363403544917</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.01621611336993</v>
+        <v>18.08059688585679</v>
       </c>
       <c r="F21">
-        <v>38.45656342449744</v>
+        <v>35.50102112719479</v>
       </c>
       <c r="G21">
-        <v>3.601527484413658</v>
+        <v>2.039870644391406</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.80342403268001</v>
+        <v>10.56050685486845</v>
       </c>
       <c r="J21">
-        <v>7.502281562101842</v>
+        <v>4.216501085522371</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.81531890829952</v>
+        <v>21.34977279347961</v>
       </c>
       <c r="N21">
-        <v>16.67746766273539</v>
+        <v>10.9300062647742</v>
       </c>
       <c r="O21">
-        <v>19.16796716986498</v>
+        <v>14.52521695944303</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.6848054227985</v>
+        <v>23.61465525839604</v>
       </c>
       <c r="C22">
-        <v>9.686258191173232</v>
+        <v>16.58819369900466</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.06968242365237</v>
+        <v>18.53729624594523</v>
       </c>
       <c r="F22">
-        <v>38.59050670705757</v>
+        <v>36.51857415237224</v>
       </c>
       <c r="G22">
-        <v>3.60017259793329</v>
+        <v>2.035795358503134</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.74216931837407</v>
+        <v>10.52715747247103</v>
       </c>
       <c r="J22">
-        <v>7.490587954599446</v>
+        <v>4.176836273394916</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.99394074572108</v>
+        <v>22.139564572978</v>
       </c>
       <c r="N22">
-        <v>16.64591059950563</v>
+        <v>10.8341651973797</v>
       </c>
       <c r="O22">
-        <v>19.15813664277569</v>
+        <v>14.79781213323828</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.48006151722307</v>
+        <v>23.19038321548682</v>
       </c>
       <c r="C23">
-        <v>9.534759531293723</v>
+        <v>16.2995729131621</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.04083796937599</v>
+        <v>18.29379626685433</v>
       </c>
       <c r="F23">
-        <v>38.51825543246959</v>
+        <v>35.97583645836589</v>
       </c>
       <c r="G23">
-        <v>3.600890931778052</v>
+        <v>2.037965430515114</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.7745129851265</v>
+        <v>10.54326034779709</v>
       </c>
       <c r="J23">
-        <v>7.496790461783003</v>
+        <v>4.19796957749835</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.89858185350632</v>
+        <v>21.72099479210437</v>
       </c>
       <c r="N23">
-        <v>16.66261450962515</v>
+        <v>10.88498390376825</v>
       </c>
       <c r="O23">
-        <v>19.16294133749094</v>
+        <v>14.65107999323689</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.67488374867625</v>
+        <v>21.51413365658889</v>
       </c>
       <c r="C24">
-        <v>8.935209037866272</v>
+        <v>15.1618933941153</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.93842254376051</v>
+        <v>17.36650263579156</v>
       </c>
       <c r="F24">
-        <v>38.26153816897973</v>
+        <v>33.91345344238353</v>
       </c>
       <c r="G24">
-        <v>3.603717090372347</v>
+        <v>2.046298917697771</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.90466346466977</v>
+        <v>10.64006291442433</v>
       </c>
       <c r="J24">
-        <v>7.521131171841108</v>
+        <v>4.278860804532812</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.5382543527066</v>
+        <v>20.07026332436961</v>
       </c>
       <c r="N24">
-        <v>16.72892799229871</v>
+        <v>11.08463618860754</v>
       </c>
       <c r="O24">
-        <v>19.19083486209832</v>
+        <v>14.12256543763521</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.74544579990607</v>
+        <v>19.55588670402184</v>
       </c>
       <c r="C25">
-        <v>8.234038343645697</v>
+        <v>13.83858808847713</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.84284551938443</v>
+        <v>16.35848031590896</v>
       </c>
       <c r="F25">
-        <v>38.0216996691376</v>
+        <v>31.68083038741966</v>
       </c>
       <c r="G25">
-        <v>3.606992738966994</v>
+        <v>2.055564068388499</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.06130403838104</v>
+        <v>10.81202755677994</v>
       </c>
       <c r="J25">
-        <v>7.549213969975484</v>
+        <v>4.368231034305995</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.15314051141221</v>
+        <v>18.32120614006531</v>
       </c>
       <c r="N25">
-        <v>16.80699523249699</v>
+        <v>11.31453191227772</v>
       </c>
       <c r="O25">
-        <v>19.24152923874994</v>
+        <v>13.60986961096983</v>
       </c>
     </row>
   </sheetData>
